--- a/ArticleManage/main_working_folder/output_folders/Data 79 Textural and Surface Characterization/Data79_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 79 Textural and Surface Characterization/Data79_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="0.11-C" sheetId="1" r:id="rId1"/>
-    <sheet name="0.11-R" sheetId="2" r:id="rId4"/>
-    <sheet name="0.25-C" sheetId="3" r:id="rId5"/>
-    <sheet name="0.25-O-C" sheetId="4" r:id="rId6"/>
-    <sheet name="0.25-R" sheetId="5" r:id="rId7"/>
-    <sheet name="O-C" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 0.11-C  0-1-0-15 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 0.11-R  0-1-0-15 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 0.25-C  0-1-0-15 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 0.25-O-C  0-1-0-15 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 0.25-R  0-1-0-15 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 O-C  0-1-0-15 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -117,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0.11-C</a:t>
+              <a:t>Izoterma adsorpcji probki 0.11-C z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.11-C'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 0.11-C  0-1-0-15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.11-C'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 0.11-C  0-1-0-15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -194,6 +194,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -263,6 +265,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -427,7 +431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0.11-R</a:t>
+              <a:t>Izoterma adsorpcji probki 0.11-R z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -486,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.11-R'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 0.11-R  0-1-0-15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.11-R'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 0.11-R  0-1-0-15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -504,6 +508,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -573,6 +579,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -737,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0.25-C</a:t>
+              <a:t>Izoterma adsorpcji probki 0.25-C z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -796,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.25-C'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 0.25-C  0-1-0-15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.25-C'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 0.25-C  0-1-0-15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -814,6 +822,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -883,6 +893,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1047,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0.25-O-C</a:t>
+              <a:t>Izoterma adsorpcji probki 0.25-O-C z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1106,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.25-O-C'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 0.25-O-C  0-1-0-15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.25-O-C'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 0.25-O-C  0-1-0-15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1124,6 +1136,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1193,6 +1207,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1357,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0.25-R</a:t>
+              <a:t>Izoterma adsorpcji probki 0.25-R z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1416,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.25-R'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 0.25-R  0-1-0-15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.25-R'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 0.25-R  0-1-0-15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1434,6 +1450,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1503,6 +1521,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1667,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki O-C</a:t>
+              <a:t>Izoterma adsorpcji probki O-C z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1726,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'O-C'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 O-C  0-1-0-15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'O-C'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 O-C  0-1-0-15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1744,6 +1764,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1813,6 +1835,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 79 Textural and Surface Characterization/Data79_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 79 Textural and Surface Characterization/Data79_all_graphs_excel.xlsx
@@ -5841,7 +5841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5862,397 +5862,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9959</v>
       </c>
       <c r="B3" s="0">
-        <v>3.7793</v>
+        <v>6.1084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9533</v>
       </c>
       <c r="B4" s="0">
-        <v>4.1528</v>
+        <v>5.6422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9164</v>
       </c>
       <c r="B5" s="0">
-        <v>4.315</v>
+        <v>5.5121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.8246</v>
       </c>
       <c r="B6" s="0">
-        <v>4.4809</v>
+        <v>5.4391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="B7" s="0">
-        <v>4.585</v>
+        <v>5.3845</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.7016</v>
       </c>
       <c r="B8" s="0">
-        <v>4.69</v>
+        <v>5.4041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.6434</v>
       </c>
       <c r="B9" s="0">
-        <v>4.78</v>
+        <v>5.3491</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.5992</v>
       </c>
       <c r="B10" s="0">
-        <v>4.8508</v>
+        <v>5.3686</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.5311</v>
       </c>
       <c r="B11" s="0">
-        <v>4.8983</v>
+        <v>5.3139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.5311</v>
       </c>
       <c r="B12" s="0">
-        <v>4.9477</v>
+        <v>5.3139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.5008</v>
       </c>
       <c r="B13" s="0">
-        <v>4.9841</v>
+        <v>5.2958</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.4467</v>
       </c>
       <c r="B14" s="0">
-        <v>5.0358</v>
+        <v>5.222</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="B15" s="0">
-        <v>5.0187</v>
+        <v>5.1482</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3525</v>
       </c>
       <c r="B16" s="0">
-        <v>5.036</v>
+        <v>5.1304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.2992</v>
       </c>
       <c r="B17" s="0">
-        <v>5.0738</v>
+        <v>5.094</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.2926</v>
       </c>
       <c r="B18" s="0">
-        <v>5.0716</v>
+        <v>5.0755</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.241</v>
       </c>
       <c r="B19" s="0">
-        <v>5.1041</v>
+        <v>5.0578</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.2344</v>
       </c>
       <c r="B20" s="0">
-        <v>5.139</v>
+        <v>5.0205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.1869</v>
       </c>
       <c r="B21" s="0">
-        <v>5.1571</v>
+        <v>4.9654</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.1779</v>
       </c>
       <c r="B22" s="0">
-        <v>5.1396</v>
+        <v>4.9282</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.1295</v>
       </c>
       <c r="B23" s="0">
-        <v>5.1918</v>
+        <v>4.7796</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.082</v>
       </c>
       <c r="B24" s="0">
-        <v>5.2216</v>
+        <v>4.5003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.0418</v>
       </c>
       <c r="B25" s="0">
-        <v>5.2264</v>
+        <v>4.1648</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.0139</v>
       </c>
       <c r="B26" s="0">
-        <v>5.2609</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B27" s="0">
-        <v>5.2599</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B28" s="0">
-        <v>5.2787</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B29" s="0">
-        <v>5.3129</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B30" s="0">
-        <v>5.3128</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B31" s="0">
-        <v>5.3475</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>5.3476</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>5.3648</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>5.331</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>5.3648</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>5.3653</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>5.4001</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>5.3994</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>5.3994</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>5.4355</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>5.434</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>5.4511</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>5.4336</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>5.5024</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>5.486</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>5.486</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>5.5031</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>5.5384</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>5.6237</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>5.7304</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>5.9245</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>3.7357</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6261,7 +6061,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6282,421 +6082,157 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9992</v>
       </c>
       <c r="B3" s="0">
-        <v>2.6975</v>
+        <v>5.0996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.991</v>
       </c>
       <c r="B4" s="0">
-        <v>2.8587</v>
+        <v>4.1845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.9049</v>
       </c>
       <c r="B5" s="0">
-        <v>2.935</v>
+        <v>3.7938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.8885</v>
       </c>
       <c r="B6" s="0">
-        <v>3.0109</v>
+        <v>3.7568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.7918</v>
       </c>
       <c r="B7" s="0">
-        <v>3.0631</v>
+        <v>3.7025</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.759</v>
       </c>
       <c r="B8" s="0">
-        <v>3.1151</v>
+        <v>3.6845</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.668</v>
       </c>
       <c r="B9" s="0">
-        <v>3.1672</v>
+        <v>3.5928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.5664</v>
       </c>
       <c r="B10" s="0">
-        <v>3.1969</v>
+        <v>3.5573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.4623</v>
       </c>
       <c r="B11" s="0">
-        <v>3.254</v>
+        <v>3.4285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.4492</v>
       </c>
       <c r="B12" s="0">
-        <v>3.2881</v>
+        <v>3.4287</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.3549</v>
       </c>
       <c r="B13" s="0">
-        <v>3.2879</v>
+        <v>3.3931</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.3016</v>
       </c>
       <c r="B14" s="0">
-        <v>3.3409</v>
+        <v>3.3568</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="B15" s="0">
-        <v>3.3419</v>
+        <v>3.339</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.191</v>
       </c>
       <c r="B16" s="0">
-        <v>3.34</v>
+        <v>3.2654</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.1426</v>
       </c>
       <c r="B17" s="0">
-        <v>3.3573</v>
+        <v>3.1542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.0967</v>
       </c>
       <c r="B18" s="0">
-        <v>3.3573</v>
+        <v>3.043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.0418</v>
       </c>
       <c r="B19" s="0">
-        <v>3.3745</v>
+        <v>2.7452</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.0139</v>
       </c>
       <c r="B20" s="0">
-        <v>3.3921</v>
+        <v>2.1293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.0033</v>
       </c>
       <c r="B21" s="0">
-        <v>3.398</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B22" s="0">
-        <v>3.4093</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B23" s="0">
-        <v>3.4394</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B24" s="0">
-        <v>3.4252</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B25" s="0">
-        <v>3.461</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B26" s="0">
-        <v>3.4785</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B27" s="0">
-        <v>3.5131</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>3.5304</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>3.5645</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>3.5653</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>3.5823</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>3.6004</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>3.6169</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>3.6328</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>3.6302</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>3.6333</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>3.6515</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>3.6515</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>3.6695</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>3.6688</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>3.6693</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>3.6861</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>3.7035</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>3.721</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>3.774</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>3.7795</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>3.843</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>3.8938</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>3.9482</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B50" s="0">
-        <v>4.081</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.991</v>
-      </c>
-      <c r="B51" s="0">
-        <v>4.2032</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>1.0008</v>
-      </c>
-      <c r="B52" s="0">
-        <v>5.0809</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0131</v>
-      </c>
-      <c r="B53" s="0">
-        <v>2.1106</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0041</v>
-      </c>
-      <c r="B54" s="0">
         <v>1.6064</v>
       </c>
     </row>
-    <row r="55"/>
+    <row r="22"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6705,7 +6241,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6726,413 +6262,189 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9975</v>
       </c>
       <c r="B3" s="0">
-        <v>5.4212</v>
+        <v>10.8905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9918</v>
       </c>
       <c r="B4" s="0">
-        <v>6.0567</v>
+        <v>9.9752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9574</v>
       </c>
       <c r="B5" s="0">
-        <v>6.5628</v>
+        <v>8.9672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.8705</v>
       </c>
       <c r="B6" s="0">
-        <v>6.7713</v>
+        <v>8.5018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.7893</v>
       </c>
       <c r="B7" s="0">
-        <v>6.9555</v>
+        <v>8.3165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.6787</v>
       </c>
       <c r="B8" s="0">
-        <v>7.0823</v>
+        <v>8.1318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.6008</v>
       </c>
       <c r="B9" s="0">
-        <v>7.2002</v>
+        <v>8.0772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.5049</v>
       </c>
       <c r="B10" s="0">
-        <v>7.2829</v>
+        <v>7.9669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.4426</v>
       </c>
       <c r="B11" s="0">
-        <v>7.3337</v>
+        <v>7.8373</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.4131</v>
       </c>
       <c r="B12" s="0">
-        <v>7.3938</v>
+        <v>7.8192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.3754</v>
       </c>
       <c r="B13" s="0">
-        <v>7.4642</v>
+        <v>7.8012</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.3459</v>
       </c>
       <c r="B14" s="0">
-        <v>7.5165</v>
+        <v>7.7084</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.332</v>
       </c>
       <c r="B15" s="0">
-        <v>7.5445</v>
+        <v>7.7086</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3025</v>
       </c>
       <c r="B16" s="0">
-        <v>7.5694</v>
+        <v>7.5597</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.2934</v>
       </c>
       <c r="B17" s="0">
-        <v>7.5988</v>
+        <v>7.5786</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.259</v>
       </c>
       <c r="B18" s="0">
-        <v>7.6488</v>
+        <v>7.5419</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.2213</v>
       </c>
       <c r="B19" s="0">
-        <v>7.7032</v>
+        <v>7.4678</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.1852</v>
       </c>
       <c r="B20" s="0">
-        <v>7.7561</v>
+        <v>7.3751</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.1492</v>
       </c>
       <c r="B21" s="0">
-        <v>7.8045</v>
+        <v>7.2637</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.1164</v>
       </c>
       <c r="B22" s="0">
-        <v>7.8337</v>
+        <v>7.0962</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.0836</v>
       </c>
       <c r="B23" s="0">
-        <v>7.8444</v>
+        <v>6.8353</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.0549</v>
       </c>
       <c r="B24" s="0">
-        <v>7.8691</v>
+        <v>6.3128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.0008</v>
       </c>
       <c r="B25" s="0">
-        <v>7.9463</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B26" s="0">
-        <v>8.0173</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B27" s="0">
-        <v>8.0603</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B28" s="0">
-        <v>8.0894</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B29" s="0">
-        <v>8.0811</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B30" s="0">
-        <v>8.0872</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B31" s="0">
-        <v>8.1074</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>8.1412</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>8.1876</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>8.1921</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>8.1631</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>8.1653</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>8.221</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>8.2525</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>8.3084</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>8.3251</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>8.3192</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>8.3483</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>8.4109</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>8.4468</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>8.5364</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>8.5922</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>8.6594</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>8.7652</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>8.9032</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>9.1877</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9967</v>
-      </c>
-      <c r="B51" s="0">
-        <v>10.8531</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9902</v>
-      </c>
-      <c r="B52" s="0">
-        <v>10.0687</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9762</v>
-      </c>
-      <c r="B53" s="0">
-        <v>9.6019</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>3.1195</v>
+      </c>
+    </row>
+    <row r="26"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7141,7 +6453,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7162,445 +6474,205 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>6.0623</v>
+        <v>3.6239</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.0025</v>
       </c>
       <c r="B4" s="0">
-        <v>6.2081</v>
+        <v>2.3163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.0016</v>
       </c>
       <c r="B5" s="0">
-        <v>6.3368</v>
+        <v>1.0087</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0">
-        <v>6.4179</v>
+        <v>4.8568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.0172</v>
       </c>
       <c r="B7" s="0">
-        <v>6.4654</v>
+        <v>5.7531</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.059</v>
       </c>
       <c r="B8" s="0">
-        <v>6.5136</v>
+        <v>6.238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.1139</v>
       </c>
       <c r="B9" s="0">
-        <v>6.5542</v>
+        <v>6.4985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.1607</v>
       </c>
       <c r="B10" s="0">
-        <v>6.5906</v>
+        <v>6.5537</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.2082</v>
       </c>
       <c r="B11" s="0">
-        <v>6.6251</v>
+        <v>6.6649</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.2533</v>
       </c>
       <c r="B12" s="0">
-        <v>6.6549</v>
+        <v>6.7201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.3016</v>
       </c>
       <c r="B13" s="0">
-        <v>6.6933</v>
+        <v>6.7565</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.3459</v>
       </c>
       <c r="B14" s="0">
-        <v>6.7225</v>
+        <v>6.8117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.3893</v>
       </c>
       <c r="B15" s="0">
-        <v>6.7369</v>
+        <v>6.8483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.4385</v>
       </c>
       <c r="B16" s="0">
-        <v>6.7413</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="B17" s="0">
-        <v>6.7653</v>
+        <v>6.8836</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.5393</v>
       </c>
       <c r="B18" s="0">
-        <v>6.8055</v>
+        <v>6.9575</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.6041</v>
       </c>
       <c r="B19" s="0">
-        <v>6.8257</v>
+        <v>7.0311</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.6525</v>
       </c>
       <c r="B20" s="0">
-        <v>6.8333</v>
+        <v>7.0488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.7287</v>
       </c>
       <c r="B21" s="0">
-        <v>6.843</v>
+        <v>7.0848</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.7533</v>
       </c>
       <c r="B22" s="0">
-        <v>6.8473</v>
+        <v>7.0843</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.8607</v>
       </c>
       <c r="B23" s="0">
-        <v>6.8527</v>
+        <v>7.157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.9582</v>
       </c>
       <c r="B24" s="0">
-        <v>6.8756</v>
+        <v>7.5101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.9697</v>
       </c>
       <c r="B25" s="0">
-        <v>6.9014</v>
+        <v>7.6967</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.9869</v>
       </c>
       <c r="B26" s="0">
-        <v>6.92</v>
+        <v>8.3502</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="B27" s="0">
-        <v>6.9383</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>6.9562</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>6.9705</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>6.9842</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>7.0004</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>7.0118</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>7.0143</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>7.0191</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>7.0354</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>7.0555</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>7.0704</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>7.0712</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>7.0753</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>7.0903</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>7.0972</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>7.1183</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>7.1477</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>7.1709</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>7.2199</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>7.2796</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>7.3421</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>7.4341</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>7.6135</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>1.0016</v>
-      </c>
-      <c r="B50" s="0">
-        <v>9.3399</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9893</v>
-      </c>
-      <c r="B51" s="0">
-        <v>8.4622</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9779</v>
-      </c>
-      <c r="B52" s="0">
-        <v>7.902</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0197</v>
-      </c>
-      <c r="B53" s="0">
-        <v>5.697</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0008</v>
-      </c>
-      <c r="B54" s="0">
-        <v>4.9128</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0</v>
-      </c>
-      <c r="B55" s="0">
-        <v>3.6239</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0025</v>
-      </c>
-      <c r="B56" s="0">
-        <v>2.3163</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0016</v>
-      </c>
-      <c r="B57" s="0">
-        <v>1.0087</v>
-      </c>
-    </row>
-    <row r="58"/>
+        <v>9.3587</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7609,7 +6681,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7630,397 +6702,181 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>6.6984</v>
+        <v>1.7746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>6.8227</v>
+        <v>0.6725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>6.8971</v>
+        <v>2.9141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0">
-        <v>6.9453</v>
+        <v>4.0722</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.28</v>
+        <v>0.0123</v>
       </c>
       <c r="B7" s="0">
-        <v>6.9828</v>
+        <v>4.8192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3</v>
+        <v>0.0344</v>
       </c>
       <c r="B8" s="0">
-        <v>7.0163</v>
+        <v>5.6407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.32</v>
+        <v>0.0721</v>
       </c>
       <c r="B9" s="0">
-        <v>7.0487</v>
+        <v>6.163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.34</v>
+        <v>0.1148</v>
       </c>
       <c r="B10" s="0">
-        <v>7.0835</v>
+        <v>6.349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.36</v>
+        <v>0.1664</v>
       </c>
       <c r="B11" s="0">
-        <v>7.123</v>
+        <v>6.5909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.38</v>
+        <v>0.2082</v>
       </c>
       <c r="B12" s="0">
-        <v>7.1657</v>
+        <v>6.7209</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4</v>
+        <v>0.2541</v>
       </c>
       <c r="B13" s="0">
-        <v>7.2067</v>
+        <v>6.7387</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.42</v>
+        <v>0.2984</v>
       </c>
       <c r="B14" s="0">
-        <v>7.2433</v>
+        <v>6.962</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.44</v>
+        <v>0.3508</v>
       </c>
       <c r="B15" s="0">
-        <v>7.2821</v>
+        <v>7.0731</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.46</v>
+        <v>0.3885</v>
       </c>
       <c r="B16" s="0">
-        <v>7.3291</v>
+        <v>7.1472</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.48</v>
+        <v>0.432</v>
       </c>
       <c r="B17" s="0">
-        <v>7.3797</v>
+        <v>7.2398</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5</v>
+        <v>0.5164</v>
       </c>
       <c r="B18" s="0">
-        <v>7.4295</v>
+        <v>7.4623</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.52</v>
+        <v>0.6082</v>
       </c>
       <c r="B19" s="0">
-        <v>7.479</v>
+        <v>7.6474</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.54</v>
+        <v>0.7221</v>
       </c>
       <c r="B20" s="0">
-        <v>7.529</v>
+        <v>7.9068</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.56</v>
+        <v>0.85</v>
       </c>
       <c r="B21" s="0">
-        <v>7.5816</v>
+        <v>8.1286</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.58</v>
+        <v>0.9393</v>
       </c>
       <c r="B22" s="0">
-        <v>7.6381</v>
+        <v>8.5379</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6</v>
+        <v>0.9779</v>
       </c>
       <c r="B23" s="0">
-        <v>7.693</v>
+        <v>9.1723</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.62</v>
+        <v>0.9967</v>
       </c>
       <c r="B24" s="0">
-        <v>7.7413</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B25" s="0">
-        <v>7.7823</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B26" s="0">
-        <v>7.8165</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B27" s="0">
-        <v>7.8487</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B28" s="0">
-        <v>7.8837</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B29" s="0">
-        <v>7.9227</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B30" s="0">
-        <v>7.9649</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B31" s="0">
-        <v>8.0069</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B32" s="0">
-        <v>8.0464</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B33" s="0">
-        <v>8.0858</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B34" s="0">
-        <v>8.1287</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B35" s="0">
-        <v>8.1776</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B36" s="0">
-        <v>8.2325</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B37" s="0">
-        <v>8.2893</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B38" s="0">
-        <v>8.3541</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B39" s="0">
-        <v>8.4632</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B40" s="0">
-        <v>8.6472</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B41" s="0">
-        <v>8.9246</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B42" s="0">
-        <v>9.2401</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.1639</v>
-      </c>
-      <c r="B43" s="0">
-        <v>6.5723</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.1164</v>
-      </c>
-      <c r="B44" s="0">
-        <v>6.3677</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.073</v>
-      </c>
-      <c r="B45" s="0">
-        <v>6.163</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0361</v>
-      </c>
-      <c r="B46" s="0">
-        <v>5.678</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0139</v>
-      </c>
-      <c r="B47" s="0">
-        <v>4.8192</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0033</v>
-      </c>
-      <c r="B48" s="0">
-        <v>4.0535</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0008</v>
-      </c>
-      <c r="B49" s="0">
-        <v>2.9327</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0</v>
-      </c>
-      <c r="B50" s="0">
-        <v>1.7746</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0</v>
-      </c>
-      <c r="B51" s="0">
-        <v>0.6725</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>9.4895</v>
+      </c>
+    </row>
+    <row r="25"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8029,7 +6885,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8050,413 +6906,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.9934</v>
       </c>
       <c r="B3" s="0">
-        <v>0.2077</v>
+        <v>2.5406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.02</v>
+        <v>0.9287</v>
       </c>
       <c r="B4" s="0">
-        <v>0.3853</v>
+        <v>2.0188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.04</v>
+        <v>0.9189</v>
       </c>
       <c r="B5" s="0">
-        <v>0.4848</v>
+        <v>1.8508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.06</v>
+        <v>0.85</v>
       </c>
       <c r="B6" s="0">
-        <v>0.5556</v>
+        <v>1.628</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.08</v>
+        <v>0.827</v>
       </c>
       <c r="B7" s="0">
-        <v>0.5896</v>
+        <v>1.6097</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1</v>
+        <v>0.7787</v>
       </c>
       <c r="B8" s="0">
-        <v>0.606</v>
+        <v>1.4985</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.12</v>
+        <v>0.7787</v>
       </c>
       <c r="B9" s="0">
-        <v>0.6403</v>
+        <v>1.4985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.14</v>
+        <v>0.7328</v>
       </c>
       <c r="B10" s="0">
-        <v>0.6577</v>
+        <v>1.4433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.16</v>
+        <v>0.6959</v>
       </c>
       <c r="B11" s="0">
-        <v>0.6632</v>
+        <v>1.4067</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.18</v>
+        <v>0.6426</v>
       </c>
       <c r="B12" s="0">
-        <v>0.6923</v>
+        <v>1.2769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2</v>
+        <v>0.6164</v>
       </c>
       <c r="B13" s="0">
-        <v>0.7094</v>
+        <v>1.2214</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.22</v>
+        <v>0.5574</v>
       </c>
       <c r="B14" s="0">
-        <v>0.7095</v>
+        <v>1.1291</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.24</v>
+        <v>0.5311</v>
       </c>
       <c r="B15" s="0">
-        <v>0.7269</v>
+        <v>1.0922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.26</v>
+        <v>0.4754</v>
       </c>
       <c r="B16" s="0">
-        <v>0.7469</v>
+        <v>1.0185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.28</v>
+        <v>0.4697</v>
       </c>
       <c r="B17" s="0">
-        <v>0.7789</v>
+        <v>0.9813</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3</v>
+        <v>0.3984</v>
       </c>
       <c r="B18" s="0">
-        <v>0.7873</v>
+        <v>0.9079</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.32</v>
+        <v>0.3893</v>
       </c>
       <c r="B19" s="0">
-        <v>0.7951</v>
+        <v>0.8894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.34</v>
+        <v>0.3246</v>
       </c>
       <c r="B20" s="0">
-        <v>0.8134</v>
+        <v>0.8159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="B21" s="0">
-        <v>0.848</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.38</v>
+        <v>0.2664</v>
       </c>
       <c r="B22" s="0">
-        <v>0.8509</v>
+        <v>0.7609</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4</v>
+        <v>0.2434</v>
       </c>
       <c r="B23" s="0">
-        <v>0.865</v>
+        <v>0.7427</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.42</v>
+        <v>0.2434</v>
       </c>
       <c r="B24" s="0">
-        <v>0.9172</v>
+        <v>0.7427</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.44</v>
+        <v>0.2434</v>
       </c>
       <c r="B25" s="0">
-        <v>0.953</v>
+        <v>0.7427</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.46</v>
+        <v>0.2238</v>
       </c>
       <c r="B26" s="0">
-        <v>0.9693</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.48</v>
+        <v>0.2107</v>
       </c>
       <c r="B27" s="0">
-        <v>1.0037</v>
+        <v>0.7433</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5</v>
+        <v>0.1959</v>
       </c>
       <c r="B28" s="0">
-        <v>1.021</v>
+        <v>0.7249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.52</v>
+        <v>0.1828</v>
       </c>
       <c r="B29" s="0">
-        <v>1.0557</v>
+        <v>0.6877</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.54</v>
+        <v>0.1533</v>
       </c>
       <c r="B30" s="0">
-        <v>1.0919</v>
+        <v>0.6883</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.56</v>
+        <v>0.1254</v>
       </c>
       <c r="B31" s="0">
-        <v>1.1075</v>
+        <v>0.6515</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.58</v>
+        <v>0.0951</v>
       </c>
       <c r="B32" s="0">
-        <v>1.1581</v>
+        <v>0.6333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6</v>
+        <v>0.0656</v>
       </c>
       <c r="B33" s="0">
-        <v>1.1939</v>
+        <v>0.5779</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.62</v>
+        <v>0.0279</v>
       </c>
       <c r="B34" s="0">
-        <v>1.2115</v>
+        <v>0.4478</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.64</v>
+        <v>0.0041</v>
       </c>
       <c r="B35" s="0">
-        <v>1.262</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B36" s="0">
-        <v>1.2978</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B37" s="0">
-        <v>1.333</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B38" s="0">
-        <v>1.3671</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B39" s="0">
-        <v>1.4198</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B40" s="0">
-        <v>1.4355</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B41" s="0">
-        <v>1.4709</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B42" s="0">
-        <v>1.5056</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B43" s="0">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B44" s="0">
-        <v>1.5751</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B45" s="0">
-        <v>1.6096</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B46" s="0">
-        <v>1.6627</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B47" s="0">
-        <v>1.7116</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B48" s="0">
-        <v>1.8008</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B49" s="0">
-        <v>1.8463</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B50" s="0">
-        <v>2.0403</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B51" s="0">
-        <v>2.2162</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B52" s="0">
-        <v>2.4101</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9943</v>
-      </c>
-      <c r="B53" s="0">
-        <v>2.5593</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>0.2241</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 79 Textural and Surface Characterization/Data79_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 79 Textural and Surface Characterization/Data79_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 0.11-C  0-1-0-15 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 0.11-R  0-1-0-15 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 0.25-C  0-1-0-15 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 0.25-O-C  0-1-0-15 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 0.25-R  0-1-0-15 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 O-C  0-1-0-15 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 0.11-C  0&amp;1&amp;0&amp;15 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 0.11-R  0&amp;1&amp;0&amp;15 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 0.25-C  0&amp;1&amp;0&amp;15 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 0.25-O-C  0&amp;1&amp;0&amp;15 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 0.25-R  0&amp;1&amp;0&amp;15 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 O-C  0&amp;1&amp;0&amp;15 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 0.11-C  0-1-0-15 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 0.11-C  0&amp;1&amp;0&amp;15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 0.11-C  0-1-0-15 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 0.11-C  0&amp;1&amp;0&amp;15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -490,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 0.11-R  0-1-0-15 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 0.11-R  0&amp;1&amp;0&amp;15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 0.11-R  0-1-0-15 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 0.11-R  0&amp;1&amp;0&amp;15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -804,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 0.25-C  0-1-0-15 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 0.25-C  0&amp;1&amp;0&amp;15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 0.25-C  0-1-0-15 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 0.25-C  0&amp;1&amp;0&amp;15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1118,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 0.25-O-C  0-1-0-15 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 0.25-O-C  0&amp;1&amp;0&amp;15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 0.25-O-C  0-1-0-15 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 0.25-O-C  0&amp;1&amp;0&amp;15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1432,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 0.25-R  0-1-0-15 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 0.25-R  0&amp;1&amp;0&amp;15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 0.25-R  0-1-0-15 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 0.25-R  0&amp;1&amp;0&amp;15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1746,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 O-C  0-1-0-15 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 O-C  0&amp;1&amp;0&amp;15 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 O-C  0-1-0-15 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 O-C  0&amp;1&amp;0&amp;15 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
